--- a/projects/cymbal-kdb/src/raw_input/nlu-router-examples-dynamic.xlsx
+++ b/projects/cymbal-kdb/src/raw_input/nlu-router-examples-dynamic.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shankyram\Downloads\GenAI\vscoderepo\repos\GenAI-Sandbox-KDB-IOH\src\raw_input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shankyram\Downloads\Work\demos\GenAI-E2E-Demos\projects\cymbal-kdb\src\raw_input\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,9 +22,9 @@
   </definedNames>
   <calcPr calcId="162913"/>
   <customWorkbookViews>
+    <customWorkbookView name="Filter 2" guid="{4C8D027A-1288-42D3-965A-6CD8C08AEE61}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="Filter 3" guid="{B714EF1E-518F-45DD-8EFE-7C9228C4E309}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
     <customWorkbookView name="Filter 1" guid="{9DD840EB-C259-4F60-9C26-DF1214856B58}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 3" guid="{B714EF1E-518F-45DD-8EFE-7C9228C4E309}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 2" guid="{4C8D027A-1288-42D3-965A-6CD8C08AEE61}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
   </customWorkbookViews>
 </workbook>
 </file>
@@ -437,12 +437,6 @@
     <t>What are the types of quota bonus benefits?</t>
   </si>
   <si>
-    <t>When will the call quota to IM3 Ooredoo &amp; Tri end?</t>
-  </si>
-  <si>
-    <t>How much call quota to IM3 Ooredoo &amp; Tri is left?</t>
-  </si>
-  <si>
     <t>When will the call quota to other operators end?</t>
   </si>
   <si>
@@ -503,9 +497,6 @@
     <t>How many free minutes do I have</t>
   </si>
   <si>
-    <t>What is my balance for Calls to IM3 Ooredoo and Tri</t>
-  </si>
-  <si>
     <t>What is my balance for Calls to other operators</t>
   </si>
   <si>
@@ -858,6 +849,15 @@
   </si>
   <si>
     <t>How much loyalty points do I have, when do they expire and what is my membership level</t>
+  </si>
+  <si>
+    <t>When will the call quota to Cymbal end?</t>
+  </si>
+  <si>
+    <t>How much call quota to Cymbal is left?</t>
+  </si>
+  <si>
+    <t>What is my balance for Calls to LifeApp Ooredoo and Tri</t>
   </si>
 </sst>
 </file>
@@ -1148,8 +1148,8 @@
   </sheetPr>
   <dimension ref="A1:Z277"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A271" workbookViewId="0">
+      <selection activeCell="A281" sqref="A281"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.6"/>
@@ -1160,7 +1160,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -2249,7 +2249,7 @@
     </row>
     <row r="134" spans="1:2" ht="13" x14ac:dyDescent="0.6">
       <c r="A134" s="3" t="s">
-        <v>135</v>
+        <v>273</v>
       </c>
       <c r="B134" s="3" t="s">
         <v>3</v>
@@ -2257,7 +2257,7 @@
     </row>
     <row r="135" spans="1:2" ht="13" x14ac:dyDescent="0.6">
       <c r="A135" s="3" t="s">
-        <v>136</v>
+        <v>274</v>
       </c>
       <c r="B135" s="3" t="s">
         <v>3</v>
@@ -2265,7 +2265,7 @@
     </row>
     <row r="136" spans="1:2" ht="13" x14ac:dyDescent="0.6">
       <c r="A136" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B136" s="3" t="s">
         <v>3</v>
@@ -2273,7 +2273,7 @@
     </row>
     <row r="137" spans="1:2" ht="13" x14ac:dyDescent="0.6">
       <c r="A137" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B137" s="3" t="s">
         <v>3</v>
@@ -2281,7 +2281,7 @@
     </row>
     <row r="138" spans="1:2" ht="13" x14ac:dyDescent="0.6">
       <c r="A138" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B138" s="3" t="s">
         <v>3</v>
@@ -2289,7 +2289,7 @@
     </row>
     <row r="139" spans="1:2" ht="13" x14ac:dyDescent="0.6">
       <c r="A139" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B139" s="3" t="s">
         <v>3</v>
@@ -2297,7 +2297,7 @@
     </row>
     <row r="140" spans="1:2" ht="13" x14ac:dyDescent="0.6">
       <c r="A140" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B140" s="3" t="s">
         <v>3</v>
@@ -2305,7 +2305,7 @@
     </row>
     <row r="141" spans="1:2" ht="13" x14ac:dyDescent="0.6">
       <c r="A141" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B141" s="3" t="s">
         <v>3</v>
@@ -2313,7 +2313,7 @@
     </row>
     <row r="142" spans="1:2" ht="13" x14ac:dyDescent="0.6">
       <c r="A142" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B142" s="3" t="s">
         <v>3</v>
@@ -2321,7 +2321,7 @@
     </row>
     <row r="143" spans="1:2" ht="13" x14ac:dyDescent="0.6">
       <c r="A143" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B143" s="3" t="s">
         <v>3</v>
@@ -2329,7 +2329,7 @@
     </row>
     <row r="144" spans="1:2" ht="13" x14ac:dyDescent="0.6">
       <c r="A144" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B144" s="3" t="s">
         <v>3</v>
@@ -2337,7 +2337,7 @@
     </row>
     <row r="145" spans="1:2" ht="13" x14ac:dyDescent="0.6">
       <c r="A145" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B145" s="3" t="s">
         <v>3</v>
@@ -2345,7 +2345,7 @@
     </row>
     <row r="146" spans="1:2" ht="13" x14ac:dyDescent="0.6">
       <c r="A146" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B146" s="3" t="s">
         <v>3</v>
@@ -2353,7 +2353,7 @@
     </row>
     <row r="147" spans="1:2" ht="13" x14ac:dyDescent="0.6">
       <c r="A147" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B147" s="3" t="s">
         <v>3</v>
@@ -2361,7 +2361,7 @@
     </row>
     <row r="148" spans="1:2" ht="13" x14ac:dyDescent="0.6">
       <c r="A148" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B148" s="3" t="s">
         <v>3</v>
@@ -2369,7 +2369,7 @@
     </row>
     <row r="149" spans="1:2" ht="13" x14ac:dyDescent="0.6">
       <c r="A149" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B149" s="3" t="s">
         <v>3</v>
@@ -2377,7 +2377,7 @@
     </row>
     <row r="150" spans="1:2" ht="13" x14ac:dyDescent="0.6">
       <c r="A150" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B150" s="3" t="s">
         <v>3</v>
@@ -2385,7 +2385,7 @@
     </row>
     <row r="151" spans="1:2" ht="13" x14ac:dyDescent="0.6">
       <c r="A151" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B151" s="3" t="s">
         <v>3</v>
@@ -2393,7 +2393,7 @@
     </row>
     <row r="152" spans="1:2" ht="13" x14ac:dyDescent="0.6">
       <c r="A152" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B152" s="3" t="s">
         <v>3</v>
@@ -2401,7 +2401,7 @@
     </row>
     <row r="153" spans="1:2" ht="13" x14ac:dyDescent="0.6">
       <c r="A153" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B153" s="3" t="s">
         <v>3</v>
@@ -2409,7 +2409,7 @@
     </row>
     <row r="154" spans="1:2" ht="13" x14ac:dyDescent="0.6">
       <c r="A154" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B154" s="3" t="s">
         <v>3</v>
@@ -2417,7 +2417,7 @@
     </row>
     <row r="155" spans="1:2" ht="13" x14ac:dyDescent="0.6">
       <c r="A155" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B155" s="3" t="s">
         <v>3</v>
@@ -2425,7 +2425,7 @@
     </row>
     <row r="156" spans="1:2" ht="13" x14ac:dyDescent="0.6">
       <c r="A156" s="3" t="s">
-        <v>157</v>
+        <v>275</v>
       </c>
       <c r="B156" s="3" t="s">
         <v>3</v>
@@ -2433,7 +2433,7 @@
     </row>
     <row r="157" spans="1:2" ht="13" x14ac:dyDescent="0.6">
       <c r="A157" s="3" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B157" s="3" t="s">
         <v>3</v>
@@ -2441,7 +2441,7 @@
     </row>
     <row r="158" spans="1:2" ht="13" x14ac:dyDescent="0.6">
       <c r="A158" s="3" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B158" s="3" t="s">
         <v>3</v>
@@ -2449,7 +2449,7 @@
     </row>
     <row r="159" spans="1:2" ht="13" x14ac:dyDescent="0.6">
       <c r="A159" s="3" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B159" s="3" t="s">
         <v>3</v>
@@ -2457,7 +2457,7 @@
     </row>
     <row r="160" spans="1:2" ht="13" x14ac:dyDescent="0.6">
       <c r="A160" s="3" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B160" s="3" t="s">
         <v>3</v>
@@ -2465,7 +2465,7 @@
     </row>
     <row r="161" spans="1:2" ht="13" x14ac:dyDescent="0.6">
       <c r="A161" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B161" s="3" t="s">
         <v>3</v>
@@ -2473,314 +2473,314 @@
     </row>
     <row r="162" spans="1:2" ht="13" x14ac:dyDescent="0.6">
       <c r="A162" s="3" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="163" spans="1:2" ht="13" x14ac:dyDescent="0.6">
       <c r="A163" s="3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="164" spans="1:2" ht="13" x14ac:dyDescent="0.6">
       <c r="A164" s="3" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="165" spans="1:2" ht="13" x14ac:dyDescent="0.6">
       <c r="A165" s="3" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="166" spans="1:2" ht="13" x14ac:dyDescent="0.6">
       <c r="A166" s="3" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="167" spans="1:2" ht="13" x14ac:dyDescent="0.6">
       <c r="A167" s="3" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="168" spans="1:2" ht="13" x14ac:dyDescent="0.6">
       <c r="A168" s="3" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="169" spans="1:2" ht="13" x14ac:dyDescent="0.6">
       <c r="A169" s="3" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="170" spans="1:2" ht="13" x14ac:dyDescent="0.6">
       <c r="A170" s="3" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="171" spans="1:2" ht="13" x14ac:dyDescent="0.6">
       <c r="A171" s="3" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="172" spans="1:2" ht="13" x14ac:dyDescent="0.6">
       <c r="A172" s="3" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="173" spans="1:2" ht="13" x14ac:dyDescent="0.6">
       <c r="A173" s="3" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="174" spans="1:2" ht="13" x14ac:dyDescent="0.6">
       <c r="A174" s="3" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="175" spans="1:2" ht="13" x14ac:dyDescent="0.6">
       <c r="A175" s="3" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="176" spans="1:2" ht="13" x14ac:dyDescent="0.6">
       <c r="A176" s="3" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="177" spans="1:2" ht="13" x14ac:dyDescent="0.6">
       <c r="A177" s="3" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="178" spans="1:2" ht="13" x14ac:dyDescent="0.6">
       <c r="A178" s="3" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="179" spans="1:2" ht="13" x14ac:dyDescent="0.6">
       <c r="A179" s="3" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="180" spans="1:2" ht="13" x14ac:dyDescent="0.6">
       <c r="A180" s="3" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="181" spans="1:2" ht="13" x14ac:dyDescent="0.6">
       <c r="A181" s="3" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="182" spans="1:2" ht="13" x14ac:dyDescent="0.6">
       <c r="A182" s="3" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="183" spans="1:2" ht="13" x14ac:dyDescent="0.6">
       <c r="A183" s="3" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="184" spans="1:2" ht="13" x14ac:dyDescent="0.6">
       <c r="A184" s="3" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="185" spans="1:2" ht="13" x14ac:dyDescent="0.6">
       <c r="A185" s="3" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="186" spans="1:2" ht="13" x14ac:dyDescent="0.6">
       <c r="A186" s="3" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="187" spans="1:2" ht="13" x14ac:dyDescent="0.6">
       <c r="A187" s="3" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="188" spans="1:2" ht="13" x14ac:dyDescent="0.6">
       <c r="A188" s="3" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="189" spans="1:2" ht="13" x14ac:dyDescent="0.6">
       <c r="A189" s="3" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="190" spans="1:2" ht="13" x14ac:dyDescent="0.6">
       <c r="A190" s="3" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="191" spans="1:2" ht="13" x14ac:dyDescent="0.6">
       <c r="A191" s="3" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="192" spans="1:2" ht="13" x14ac:dyDescent="0.6">
       <c r="A192" s="3" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="193" spans="1:2" ht="13" x14ac:dyDescent="0.6">
       <c r="A193" s="3" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="194" spans="1:2" ht="13" x14ac:dyDescent="0.6">
       <c r="A194" s="3" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="195" spans="1:2" ht="13" x14ac:dyDescent="0.6">
       <c r="A195" s="3" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="196" spans="1:2" ht="13" x14ac:dyDescent="0.6">
       <c r="A196" s="3" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="197" spans="1:2" ht="13" x14ac:dyDescent="0.6">
       <c r="A197" s="3" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="198" spans="1:2" ht="13" x14ac:dyDescent="0.6">
       <c r="A198" s="3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="199" spans="1:2" ht="13" x14ac:dyDescent="0.6">
       <c r="A199" s="3" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="200" spans="1:2" ht="13" x14ac:dyDescent="0.6">
       <c r="A200" s="3" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="201" spans="1:2" ht="13" x14ac:dyDescent="0.6">
@@ -2788,621 +2788,621 @@
         <v>110</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="202" spans="1:2" ht="13" x14ac:dyDescent="0.6">
       <c r="A202" s="3" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="203" spans="1:2" ht="13" x14ac:dyDescent="0.6">
       <c r="A203" s="3" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="204" spans="1:2" ht="13" x14ac:dyDescent="0.6">
       <c r="A204" s="3" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="205" spans="1:2" ht="13" x14ac:dyDescent="0.6">
       <c r="A205" s="3" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="206" spans="1:2" ht="13" x14ac:dyDescent="0.6">
       <c r="A206" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="207" spans="1:2" ht="13" x14ac:dyDescent="0.6">
       <c r="A207" s="3" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="208" spans="1:2" ht="13" x14ac:dyDescent="0.6">
       <c r="A208" s="3" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="209" spans="1:2" ht="13" x14ac:dyDescent="0.6">
       <c r="A209" s="3" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="210" spans="1:2" ht="13" x14ac:dyDescent="0.6">
       <c r="A210" s="3" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="211" spans="1:2" ht="13" x14ac:dyDescent="0.6">
       <c r="A211" s="3" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="212" spans="1:2" ht="13" x14ac:dyDescent="0.6">
       <c r="A212" s="3" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B212" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="213" spans="1:2" ht="13" x14ac:dyDescent="0.6">
       <c r="A213" s="3" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="214" spans="1:2" ht="13" x14ac:dyDescent="0.6">
       <c r="A214" s="3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="215" spans="1:2" ht="13" x14ac:dyDescent="0.6">
       <c r="A215" s="3" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="216" spans="1:2" ht="13" x14ac:dyDescent="0.6">
       <c r="A216" s="3" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="217" spans="1:2" ht="13" x14ac:dyDescent="0.6">
       <c r="A217" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="218" spans="1:2" ht="13" x14ac:dyDescent="0.6">
       <c r="A218" s="3" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B218" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="219" spans="1:2" ht="13" x14ac:dyDescent="0.6">
       <c r="A219" s="3" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="220" spans="1:2" ht="13" x14ac:dyDescent="0.6">
       <c r="A220" s="3" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B220" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="221" spans="1:2" ht="13" x14ac:dyDescent="0.6">
       <c r="A221" s="3" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B221" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="222" spans="1:2" ht="13" x14ac:dyDescent="0.6">
       <c r="A222" s="3" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B222" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="223" spans="1:2" ht="13" x14ac:dyDescent="0.6">
       <c r="A223" s="3" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="224" spans="1:2" ht="13" x14ac:dyDescent="0.6">
       <c r="A224" s="3" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B224" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="225" spans="1:2" ht="13" x14ac:dyDescent="0.6">
       <c r="A225" s="3" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B225" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="226" spans="1:2" ht="13" x14ac:dyDescent="0.6">
       <c r="A226" s="3" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B226" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="227" spans="1:2" ht="13" x14ac:dyDescent="0.6">
       <c r="A227" s="3" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B227" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="228" spans="1:2" ht="13" x14ac:dyDescent="0.6">
       <c r="A228" s="3" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B228" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="229" spans="1:2" ht="13" x14ac:dyDescent="0.6">
       <c r="A229" s="3" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B229" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="230" spans="1:2" ht="13" x14ac:dyDescent="0.6">
       <c r="A230" s="3" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B230" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="231" spans="1:2" ht="13" x14ac:dyDescent="0.6">
       <c r="A231" s="3" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B231" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="232" spans="1:2" ht="13" x14ac:dyDescent="0.6">
       <c r="A232" s="3" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B232" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="233" spans="1:2" ht="13" x14ac:dyDescent="0.6">
       <c r="A233" s="3" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B233" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="234" spans="1:2" ht="13" x14ac:dyDescent="0.6">
       <c r="A234" s="3" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B234" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="235" spans="1:2" ht="13" x14ac:dyDescent="0.6">
       <c r="A235" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B235" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="236" spans="1:2" ht="13" x14ac:dyDescent="0.6">
       <c r="A236" s="3" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B236" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="237" spans="1:2" ht="13" x14ac:dyDescent="0.6">
       <c r="A237" s="3" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B237" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="238" spans="1:2" ht="13" x14ac:dyDescent="0.6">
       <c r="A238" s="3" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B238" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="239" spans="1:2" ht="13" x14ac:dyDescent="0.6">
       <c r="A239" s="3" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B239" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="240" spans="1:2" ht="13" x14ac:dyDescent="0.6">
       <c r="A240" s="3" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B240" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="241" spans="1:2" ht="13" x14ac:dyDescent="0.6">
       <c r="A241" s="3" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B241" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="242" spans="1:2" ht="13" x14ac:dyDescent="0.6">
       <c r="A242" s="3" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B242" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="243" spans="1:2" ht="13" x14ac:dyDescent="0.6">
       <c r="A243" s="3" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B243" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="244" spans="1:2" ht="13" x14ac:dyDescent="0.6">
       <c r="A244" s="3" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B244" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="245" spans="1:2" ht="13" x14ac:dyDescent="0.6">
       <c r="A245" s="3" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B245" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="246" spans="1:2" ht="13" x14ac:dyDescent="0.6">
       <c r="A246" s="3" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B246" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="247" spans="1:2" ht="13" x14ac:dyDescent="0.6">
       <c r="A247" s="3" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B247" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="248" spans="1:2" ht="13" x14ac:dyDescent="0.6">
       <c r="A248" s="3" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B248" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="249" spans="1:2" ht="13" x14ac:dyDescent="0.6">
       <c r="A249" s="3" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B249" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="250" spans="1:2" ht="13" x14ac:dyDescent="0.6">
       <c r="A250" s="3" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B250" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="251" spans="1:2" ht="13" x14ac:dyDescent="0.6">
       <c r="A251" s="3" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B251" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="252" spans="1:2" ht="13" x14ac:dyDescent="0.6">
       <c r="A252" s="3" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B252" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="253" spans="1:2" ht="13" x14ac:dyDescent="0.6">
       <c r="A253" s="3" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B253" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="254" spans="1:2" ht="13" x14ac:dyDescent="0.6">
       <c r="A254" s="3" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B254" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="255" spans="1:2" ht="13" x14ac:dyDescent="0.6">
       <c r="A255" s="3" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B255" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="256" spans="1:2" ht="13" x14ac:dyDescent="0.6">
       <c r="A256" s="3" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B256" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="257" spans="1:2" ht="13" x14ac:dyDescent="0.6">
       <c r="A257" s="3" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B257" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="258" spans="1:2" ht="13" x14ac:dyDescent="0.6">
       <c r="A258" s="3" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B258" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="259" spans="1:2" ht="13" x14ac:dyDescent="0.6">
       <c r="A259" s="3" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B259" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="260" spans="1:2" ht="13" x14ac:dyDescent="0.6">
       <c r="A260" s="3" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B260" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="261" spans="1:2" ht="13" x14ac:dyDescent="0.6">
       <c r="A261" s="3" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B261" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="262" spans="1:2" ht="13" x14ac:dyDescent="0.6">
       <c r="A262" s="3" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B262" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="263" spans="1:2" ht="13" x14ac:dyDescent="0.6">
       <c r="A263" s="3" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B263" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="264" spans="1:2" ht="13" x14ac:dyDescent="0.6">
       <c r="A264" s="3" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B264" s="3" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="265" spans="1:2" ht="13" x14ac:dyDescent="0.6">
       <c r="A265" s="3" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B265" s="3" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="266" spans="1:2" ht="13" x14ac:dyDescent="0.6">
       <c r="A266" s="3" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B266" s="3" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="267" spans="1:2" ht="13" x14ac:dyDescent="0.6">
       <c r="A267" s="3" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B267" s="3" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="268" spans="1:2" ht="13" x14ac:dyDescent="0.6">
       <c r="A268" s="3" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B268" s="3" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="269" spans="1:2" ht="13" x14ac:dyDescent="0.6">
       <c r="A269" s="3" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B269" s="3" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="270" spans="1:2" ht="13" x14ac:dyDescent="0.6">
       <c r="A270" s="3" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B270" s="3" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="271" spans="1:2" ht="13" x14ac:dyDescent="0.6">
       <c r="A271" s="3" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B271" s="3" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="272" spans="1:2" ht="13" x14ac:dyDescent="0.6">
       <c r="A272" s="3" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B272" s="3" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="273" spans="1:2" ht="13" x14ac:dyDescent="0.6">
       <c r="A273" s="3" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B273" s="3" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="274" spans="1:2" ht="13" x14ac:dyDescent="0.6">
       <c r="A274" s="3" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B274" s="3" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="275" spans="1:2" ht="13" x14ac:dyDescent="0.6">
       <c r="A275" s="3" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B275" s="3" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="276" spans="1:2" ht="13" x14ac:dyDescent="0.6">
       <c r="A276" s="3" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B276" s="3" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="277" spans="1:2" ht="13" x14ac:dyDescent="0.6">
       <c r="A277" s="3" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B277" s="3" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:Z277"/>
   <customSheetViews>
-    <customSheetView guid="{9DD840EB-C259-4F60-9C26-DF1214856B58}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{B714EF1E-518F-45DD-8EFE-7C9228C4E309}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <autoFilter ref="A1:AA538"/>
     </customSheetView>
@@ -3410,7 +3410,7 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <autoFilter ref="A1:AA538"/>
     </customSheetView>
-    <customSheetView guid="{B714EF1E-518F-45DD-8EFE-7C9228C4E309}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{9DD840EB-C259-4F60-9C26-DF1214856B58}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <autoFilter ref="A1:AA538"/>
     </customSheetView>
